--- a/info.xlsx
+++ b/info.xlsx
@@ -1,25 +1,217 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiubaar-my.sharepoint.com/personal/jquijano_fi_uba_ar/Documents/Curso Front End -Ticmas Academy/Proyecto CV/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A823186-F505-4059-9B9C-366679C6EA53}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiencia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Juan Pablo Quijano Cuman</t>
+  </si>
+  <si>
+    <t>Profesión</t>
+  </si>
+  <si>
+    <t>Estudiante de Ingeniería mecánica</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Estado_civil</t>
+  </si>
+  <si>
+    <t>Fecha_Nacimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar al mercado laboral con el fin de aprender y adquirir experiencia relacionada a la ingeniería mecánica. </t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Alberti  134,  Piso  7° “B”– CAPITAL FEDERAL</t>
+  </si>
+  <si>
+    <t>juanpquijano@outlook.com</t>
+  </si>
+  <si>
+    <t>11-6160-3797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 - actualidad  </t>
+  </si>
+  <si>
+    <t>Me encuentro cursando el 4to año de la carrera.</t>
+  </si>
+  <si>
+    <t>Educacion</t>
+  </si>
+  <si>
+    <t>Facultad de Ingeniería - UBA</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Colegio San José de Buenos Aires</t>
+  </si>
+  <si>
+    <t>2013-2017</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Ingeniería Mecánica</t>
+  </si>
+  <si>
+    <t>Secundario completo</t>
+  </si>
+  <si>
+    <t>Bachiller con orientación en Ciencias Exactas aplicadas a técnicas administrativo-contables. Promedio: 9,31 - Diploma de Honor</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>Nivel B2</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Nativo</t>
+  </si>
+  <si>
+    <t>Estudio Contable Lesta, Calello, De Chiara</t>
+  </si>
+  <si>
+    <t>2018 - 2021</t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>Realizaba tareas de análisis y confección de informes de Concursos Preventivos y Quiebras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repartidor </t>
+  </si>
+  <si>
+    <t>Wait For It</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas de reparto de alimentos por la zona de microcentro. </t>
+  </si>
+  <si>
+    <t>Capacitacion</t>
+  </si>
+  <si>
+    <t>Manejo de AutoCAD Mechanical (UBA)</t>
+  </si>
+  <si>
+    <t>Curso Data Science and Machine Learning in Python</t>
+  </si>
+  <si>
+    <t>Curso Automación y Control: Módulo PLC (UTN)</t>
+  </si>
+  <si>
+    <t>Excelente manejo de Paquete de Office</t>
+  </si>
+  <si>
+    <t>Excel, Word, PowerPoint</t>
+  </si>
+  <si>
+    <t>Introducción a la programación de PLC. Diagramas lógicos, esquemas de conexión, lenguaje Ladder, Contadores, Timers, Internal Relays.</t>
+  </si>
+  <si>
+    <t>Dictado en inglés por la Fachhochschule Dortmund - Alemania. Manejo  de  librerías  Numpy,  Pandas, 
+Matplotlib y Scikit.learn.</t>
+  </si>
+  <si>
+    <t>Ingresar al mercado laboral con el fin de aprender y adquirir experiencia relacionada a la ingeniería mecánica.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,17 +237,518 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="26">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +759,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A13:K14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="24">
+  <autoFilter ref="A13:K14" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesión" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="email" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}" name="Experiencia" displayName="Experiencia" ref="A1:F11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:F11" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1D7F1880-C9A3-48AE-92EE-5FC78EFFAE69}" name="Tipo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{99DBE325-DE10-43C7-AC21-123995DB34A8}" name="N°" dataDxfId="5">
+      <calculatedColumnFormula>+B1+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{CAE27C65-F8E4-4BF6-B8B8-9AD50F523532}" name="Período" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{094E8D3C-7861-41B5-897C-E054FACCD1F5}" name="Lugar" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{8D08C2B5-92C8-40AF-A90F-3440CD68A89B}" name="Titulo" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{8AC9A318-3673-45B1-BAA4-1594B9D9CA20}" name="Descripción" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1060,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42176358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>36486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9">
+        <v>42176358</v>
+      </c>
+      <c r="E14" s="9">
+        <v>23</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="11">
+        <v>36486</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D90C00-5FCB-4F90-B5F9-62EA9D964F59}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <f>+B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <f>+B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <f>+B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <f>+B8+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:B11" si="0">+B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiubaar-my.sharepoint.com/personal/jquijano_fi_uba_ar/Documents/Curso Front End -Ticmas Academy/Proyecto CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A823186-F505-4059-9B9C-366679C6EA53}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE3CD8FE-1999-40B9-84BB-547EA0C86218}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Experiencia" sheetId="2" r:id="rId2"/>
+    <sheet name="Info_personal" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,19 +45,10 @@
     <t>Juan Pablo Quijano Cuman</t>
   </si>
   <si>
-    <t>Profesión</t>
-  </si>
-  <si>
     <t>Estudiante de Ingeniería mecánica</t>
   </si>
   <si>
-    <t>Período</t>
-  </si>
-  <si>
     <t>Lugar</t>
-  </si>
-  <si>
-    <t>Descripción</t>
   </si>
   <si>
     <t>Trabajo</t>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t>Ingresar al mercado laboral con el fin de aprender y adquirir experiencia relacionada a la ingeniería mecánica.</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Profesion</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -365,12 +365,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="25">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -392,106 +525,191 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -502,22 +720,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -527,225 +729,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -762,37 +745,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A13:K14" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A13:K14" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A13:K14" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesión" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="email" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesion" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="email" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}" name="Experiencia" displayName="Experiencia" ref="A1:F11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}" name="Experiencia" displayName="Experiencia" ref="A1:F11" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F11" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1D7F1880-C9A3-48AE-92EE-5FC78EFFAE69}" name="Tipo" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{99DBE325-DE10-43C7-AC21-123995DB34A8}" name="N°" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{1D7F1880-C9A3-48AE-92EE-5FC78EFFAE69}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{99DBE325-DE10-43C7-AC21-123995DB34A8}" name="N°" dataDxfId="4">
       <calculatedColumnFormula>+B1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CAE27C65-F8E4-4BF6-B8B8-9AD50F523532}" name="Período" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{094E8D3C-7861-41B5-897C-E054FACCD1F5}" name="Lugar" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8D08C2B5-92C8-40AF-A90F-3440CD68A89B}" name="Titulo" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{8AC9A318-3673-45B1-BAA4-1594B9D9CA20}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CAE27C65-F8E4-4BF6-B8B8-9AD50F523532}" name="Periodo" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{094E8D3C-7861-41B5-897C-E054FACCD1F5}" name="Lugar" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8D08C2B5-92C8-40AF-A90F-3440CD68A89B}" name="Titulo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8AC9A318-3673-45B1-BAA4-1594B9D9CA20}" name="Descripcion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1063,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,23 +1068,23 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>42176358</v>
@@ -1109,7 +1092,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>23</v>
@@ -1117,15 +1100,15 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>36486</v>
@@ -1133,34 +1116,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1168,34 +1151,34 @@
         <v>0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1203,10 +1186,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9">
         <v>42176358</v>
@@ -1215,22 +1198,22 @@
         <v>23</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" s="11">
         <v>36486</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D90C00-5FCB-4F90-B5F9-62EA9D964F59}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,68 +1241,68 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <f>+B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1327,15 +1310,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <f>+B4+1</f>
@@ -1344,35 +1327,35 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <f>+B6+1</f>
@@ -1382,18 +1365,18 @@
         <v>2018</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1401,13 +1384,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <f>+B8+1</f>
@@ -1418,15 +1401,15 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ref="B10:B11" si="0">+B9+1</f>
@@ -1437,15 +1420,15 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9">
         <f t="shared" si="0"/>
@@ -1454,10 +1437,10 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiubaar-my.sharepoint.com/personal/jquijano_fi_uba_ar/Documents/Curso Front End -Ticmas Academy/Proyecto CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE3CD8FE-1999-40B9-84BB-547EA0C86218}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B303525-28A3-4F4D-814B-ED1FCD948CD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info_personal" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Nombre</t>
   </si>
@@ -206,14 +206,25 @@
   </si>
   <si>
     <t>Profesion</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -352,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -365,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1136,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1216,10 +1228,14 @@
         <v>52</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1228,13 +1244,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D90C00-5FCB-4F90-B5F9-62EA9D964F59}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiubaar-my.sharepoint.com/personal/jquijano_fi_uba_ar/Documents/Curso Front End -Ticmas Academy/Proyecto CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B303525-28A3-4F4D-814B-ED1FCD948CD7}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15712030-EB17-41A1-A4EF-8D2FC204D5F6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info_personal" sheetId="1" r:id="rId1"/>
+    <sheet name="info_personal" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Capacidades" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Nombre</t>
   </si>
@@ -93,18 +94,12 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Alberti  134,  Piso  7° “B”– CAPITAL FEDERAL</t>
-  </si>
-  <si>
     <t>juanpquijano@outlook.com</t>
   </si>
   <si>
     <t>11-6160-3797</t>
   </si>
   <si>
-    <t xml:space="preserve">2018 - actualidad  </t>
-  </si>
-  <si>
     <t>Me encuentro cursando el 4to año de la carrera.</t>
   </si>
   <si>
@@ -120,9 +115,6 @@
     <t>Colegio San José de Buenos Aires</t>
   </si>
   <si>
-    <t>2013-2017</t>
-  </si>
-  <si>
     <t>Titulo</t>
   </si>
   <si>
@@ -153,13 +145,7 @@
     <t>Estudio Contable Lesta, Calello, De Chiara</t>
   </si>
   <si>
-    <t>2018 - 2021</t>
-  </si>
-  <si>
     <t>Administrativo</t>
-  </si>
-  <si>
-    <t>Realizaba tareas de análisis y confección de informes de Concursos Preventivos y Quiebras.</t>
   </si>
   <si>
     <t xml:space="preserve">Repartidor </t>
@@ -209,13 +195,100 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>/juan-pablo-quijano-cuman</t>
+  </si>
+  <si>
+    <t>Capacidades</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Proactivo</t>
+  </si>
+  <si>
+    <t>Trabajo en equipo</t>
+  </si>
+  <si>
+    <t>Autodidacta</t>
+  </si>
+  <si>
+    <t>Capacidad de análisis</t>
+  </si>
+  <si>
+    <t>Organizado</t>
+  </si>
+  <si>
+    <t>Resolución de problemas</t>
+  </si>
+  <si>
+    <t>Alberti  134,  Piso  7° “B”– CABA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marzo 2018 - actualidad  </t>
+  </si>
+  <si>
+    <t>Febrero 2013 - Diciembre 2017</t>
+  </si>
+  <si>
+    <t>Mayo 2018 - Julio 2021</t>
+  </si>
+  <si>
+    <t>Febrero - Julio 2022</t>
+  </si>
+  <si>
+    <t>Enero - Julio 2018</t>
+  </si>
+  <si>
+    <t>Septiembre - Noviembre 2022</t>
+  </si>
+  <si>
+    <t>Diseño de piezas mecánicas en vista plana, manejo de layers, acotación según normas</t>
+  </si>
+  <si>
+    <t>Tareas de análisis y confección de informes de Concursos Preventivos y Quiebras. Análisis en Excel de la documentación respaldatoria del crédito con funciones matemáticas. Informe en Word detallando el porqué de la rechazo o verificación parcial o total del crédito.</t>
+  </si>
+  <si>
+    <t>Enero 2023 - actualidad</t>
+  </si>
+  <si>
+    <t>Tetra Pak SRL</t>
+  </si>
+  <si>
+    <t>Pasante de Automation</t>
+  </si>
+  <si>
+    <t>Confección de pantallas Intouch para control de máquinas. Proceso desde P&amp;ID en AutoCAD hasta pantalla funcional acoplada a la máquina.</t>
+  </si>
+  <si>
+    <t>Info_personal</t>
+  </si>
+  <si>
+    <t>Experiencia</t>
+  </si>
+  <si>
+    <t>Diciembre 2022 - Enero 2023</t>
+  </si>
+  <si>
+    <t>Ticmas Academy</t>
+  </si>
+  <si>
+    <t>Curso Primeros pasos del desarrollo FrontEnd</t>
+  </si>
+  <si>
+    <t>Programa "Argentina Programa 4.0". Programación FrontEnd de páginas web con HTML, CSS y JavaScript. Utilización de Git y GitHub. Conceptos fundamentales de una página web: servidores, dominios, organización de proyectos y sus etapas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +300,22 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,10 +449,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -377,17 +467,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -409,6 +520,205 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -472,7 +782,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -487,207 +799,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -696,7 +807,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -757,37 +870,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A13:K14" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A13:K14" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesion" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="email" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A16:L17" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A16:L17" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesion" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="email" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{50237959-641E-446E-B473-2F440CA62A59}" name="Linkedin" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}" name="Experiencia" displayName="Experiencia" ref="A1:F11" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F11" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}" name="Experiencia" displayName="Experiencia" ref="A3:F15" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A3:F15" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1D7F1880-C9A3-48AE-92EE-5FC78EFFAE69}" name="Tipo" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{99DBE325-DE10-43C7-AC21-123995DB34A8}" name="N°" dataDxfId="4">
-      <calculatedColumnFormula>+B1+1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{1D7F1880-C9A3-48AE-92EE-5FC78EFFAE69}" name="Tipo" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{99DBE325-DE10-43C7-AC21-123995DB34A8}" name="N°" dataDxfId="20">
+      <calculatedColumnFormula>+B3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CAE27C65-F8E4-4BF6-B8B8-9AD50F523532}" name="Periodo" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{094E8D3C-7861-41B5-897C-E054FACCD1F5}" name="Lugar" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{8D08C2B5-92C8-40AF-A90F-3440CD68A89B}" name="Titulo" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{8AC9A318-3673-45B1-BAA4-1594B9D9CA20}" name="Descripcion" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CAE27C65-F8E4-4BF6-B8B8-9AD50F523532}" name="Periodo" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{094E8D3C-7861-41B5-897C-E054FACCD1F5}" name="Lugar" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{8D08C2B5-92C8-40AF-A90F-3440CD68A89B}" name="Titulo" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8AC9A318-3673-45B1-BAA4-1594B9D9CA20}" name="Descripcion" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1056,9 +1170,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1066,186 +1180,208 @@
   <cols>
     <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="11.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="3" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B6" s="1">
         <v>42176358</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>36486</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D17" s="9">
         <v>42176358</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E17" s="9">
         <v>23</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G17" s="11">
         <v>36486</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="K17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I17" r:id="rId1" xr:uid="{15564F9A-7C32-4FB8-A879-CFBD9D880B8A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D90C00-5FCB-4F90-B5F9-62EA9D964F59}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,213 +1393,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1">
-        <f>+B2+1</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
+      <c r="F3" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
-        <f>+B4+1</f>
+        <f>IF(A4=A5,B4+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
+        <f t="shared" ref="B6:B15" si="0">IF(A5=A6,B5+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
-        <f>+B6+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <f>+B8+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:B11" si="0">+B9+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>49</v>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B3DE1F-CE48-4AA1-AE35-8404F644B4EE}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,A2:A8),"]")</f>
+        <v>[Responsable,Proactivo,Trabajo en equipo,Organizado,Autodidacta,Capacidad de análisis,Resolución de problemas]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiubaar-my.sharepoint.com/personal/jquijano_fi_uba_ar/Documents/Curso Front End -Ticmas Academy/Proyecto CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15712030-EB17-41A1-A4EF-8D2FC204D5F6}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36DC044C-48BE-433F-8CC5-BC6713CC2B20}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info_personal" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>Nombre</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Soltero</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Domicilio</t>
   </si>
   <si>
@@ -160,13 +157,7 @@
     <t>Capacitacion</t>
   </si>
   <si>
-    <t>Manejo de AutoCAD Mechanical (UBA)</t>
-  </si>
-  <si>
     <t>Curso Data Science and Machine Learning in Python</t>
-  </si>
-  <si>
-    <t>Curso Automación y Control: Módulo PLC (UTN)</t>
   </si>
   <si>
     <t>Excelente manejo de Paquete de Office</t>
@@ -282,6 +273,27 @@
   </si>
   <si>
     <t>Programa "Argentina Programa 4.0". Programación FrontEnd de páginas web con HTML, CSS y JavaScript. Utilización de Git y GitHub. Conceptos fundamentales de una página web: servidores, dominios, organización de proyectos y sus etapas.</t>
+  </si>
+  <si>
+    <t>Curso Automación y Control: Módulo PLC</t>
+  </si>
+  <si>
+    <t>UTN FRBA</t>
+  </si>
+  <si>
+    <t>FIUBA</t>
+  </si>
+  <si>
+    <t>Manejo de AutoCAD Mechanical</t>
+  </si>
+  <si>
+    <t>Fachhochschule Dortmund</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Array</t>
   </si>
 </sst>
 </file>
@@ -467,10 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -486,6 +498,152 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -664,152 +822,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -870,38 +882,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A16:L17" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A16:L17" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A16:L17" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesion" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="email" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{50237959-641E-446E-B473-2F440CA62A59}" name="Linkedin" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesion" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="Email" dataDxfId="13" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{50237959-641E-446E-B473-2F440CA62A59}" name="Linkedin" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}" name="Experiencia" displayName="Experiencia" ref="A3:F15" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}" name="Experiencia" displayName="Experiencia" ref="A3:F15" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A3:F15" xr:uid="{67BE5B99-F3F7-4312-8C48-F36D3CBD6ECB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1D7F1880-C9A3-48AE-92EE-5FC78EFFAE69}" name="Tipo" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{99DBE325-DE10-43C7-AC21-123995DB34A8}" name="N°" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{1D7F1880-C9A3-48AE-92EE-5FC78EFFAE69}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{99DBE325-DE10-43C7-AC21-123995DB34A8}" name="N°" dataDxfId="4">
       <calculatedColumnFormula>+B3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CAE27C65-F8E4-4BF6-B8B8-9AD50F523532}" name="Periodo" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{094E8D3C-7861-41B5-897C-E054FACCD1F5}" name="Lugar" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{8D08C2B5-92C8-40AF-A90F-3440CD68A89B}" name="Titulo" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{8AC9A318-3673-45B1-BAA4-1594B9D9CA20}" name="Descripcion" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{CAE27C65-F8E4-4BF6-B8B8-9AD50F523532}" name="Periodo" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{094E8D3C-7861-41B5-897C-E054FACCD1F5}" name="Lugar" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8D08C2B5-92C8-40AF-A90F-3440CD68A89B}" name="Titulo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8AC9A318-3673-45B1-BAA4-1594B9D9CA20}" name="Descripcion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1173,7 +1185,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,8 +1197,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>75</v>
+      <c r="A1" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1199,7 +1211,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1247,34 +1259,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1290,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
@@ -1308,16 +1320,16 @@
         <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>6</v>
@@ -1346,19 +1358,19 @@
         <v>36486</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1380,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D90C00-5FCB-4F90-B5F9-62EA9D964F59}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,74 +1405,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>76</v>
+      <c r="A1" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <f>IF(A4=A5,B4+1,1)</f>
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B15" si="0">IF(A5=A6,B5+1,1)</f>
@@ -1469,15 +1481,15 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -1486,10 +1498,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1501,16 +1513,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1522,16 +1534,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>70</v>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,97 +1555,103 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
@@ -1642,10 +1660,10 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1659,54 +1677,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B3DE1F-CE48-4AA1-AE35-8404F644B4EE}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"'")</f>
+        <v>'Responsable'</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,B2:B8),"]")</f>
+        <v>['Responsable','Proactivo','Trabajo en equipo','Organizado','Autodidacta','Capacidad de análisis','Resolución de problemas']</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B8" si="0">_xlfn.CONCAT("'",A3,"'")</f>
+        <v>'Proactivo'</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A2:A8)</f>
+        <v>Responsable,Proactivo,Trabajo en equipo,Organizado,Autodidacta,Capacidad de análisis,Resolución de problemas</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'Trabajo en equipo'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'Organizado'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,A2:A8),"]")</f>
-        <v>[Responsable,Proactivo,Trabajo en equipo,Organizado,Autodidacta,Capacidad de análisis,Resolución de problemas]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'Autodidacta'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'Capacidad de análisis'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Resolución de problemas'</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiubaar-my.sharepoint.com/personal/jquijano_fi_uba_ar/Documents/Curso Front End -Ticmas Academy/Proyecto CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36DC044C-48BE-433F-8CC5-BC6713CC2B20}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="11_AD4D2F04E46CFB4ACB3E203F1597FE22683EDF0C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0919F11-B3D0-474A-8DBC-541FF830A4BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="info_personal" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiencia" sheetId="2" r:id="rId2"/>
     <sheet name="Capacidades" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="infoPersonal">Datos_personales[#All]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Nombre</t>
   </si>
@@ -56,33 +81,6 @@
   </si>
   <si>
     <t>N°</t>
-  </si>
-  <si>
-    <t>Objetivo</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estado_civil</t>
-  </si>
-  <si>
-    <t>Fecha_Nacimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingresar al mercado laboral con el fin de aprender y adquirir experiencia relacionada a la ingeniería mecánica. </t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Soltero</t>
   </si>
   <si>
     <t>Domicilio</t>
@@ -173,9 +171,6 @@
 Matplotlib y Scikit.learn.</t>
   </si>
   <si>
-    <t>Ingresar al mercado laboral con el fin de aprender y adquirir experiencia relacionada a la ingeniería mecánica.</t>
-  </si>
-  <si>
     <t>Periodo</t>
   </si>
   <si>
@@ -288,9 +283,6 @@
   </si>
   <si>
     <t>Fachhochschule Dortmund</t>
-  </si>
-  <si>
-    <t>Formato</t>
   </si>
   <si>
     <t>Array</t>
@@ -465,10 +457,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -477,7 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -488,7 +478,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="20">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -640,20 +630,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -663,87 +639,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -882,21 +777,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A16:L17" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A16:L17" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesion" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{A9B73725-3349-40DA-965D-C5DD6B353EC4}" name="Nacionalidad" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{D3F74730-CF31-480C-AD5F-339F450A8585}" name="Documento" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7B88F801-5727-44F3-90CF-7A947DA98E5D}" name="Edad" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{8D7F5F4E-4D2F-48D2-AD11-5641881640BE}" name="Estado_civil" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{42737A22-D0E9-45BE-A81E-5CE1A1130E9F}" name="Fecha_Nacimiento" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="Email" dataDxfId="13" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{50237959-641E-446E-B473-2F440CA62A59}" name="Linkedin" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{223D86C4-9499-45F0-A8D1-34034ECB674B}" name="Objetivo" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}" name="Datos_personales" displayName="Datos_personales" ref="A3:F4" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A3:F4" xr:uid="{31FE2CF7-2CF4-456B-A0B2-9CB6A4BD0E2F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{318A5C80-5206-43E7-B06D-132F2C8FA583}" name="Nombre" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6068027F-12A9-41A4-8709-51FF58447C7D}" name="Profesion" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{420E7269-BE6A-441E-B97C-52ADB67545C2}" name="Domicilio" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{088F8DAE-2575-445D-BDDB-93730E39798C}" name="Email" dataDxfId="12" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="10" xr3:uid="{75227B53-5B21-4691-951A-64D75E4ECB17}" name="Celular" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{50237959-641E-446E-B473-2F440CA62A59}" name="Linkedin" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1182,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,189 +1085,106 @@
     <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
-        <v>42176358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>36486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9">
-        <v>42176358</v>
-      </c>
-      <c r="E17" s="9">
-        <v>23</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="11">
-        <v>36486</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str" cm="1">
+        <f t="array" ref="A6:B11">TRANSPOSE(infoPersonal)</f>
+        <v>Nombre</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>Juan Pablo Quijano Cuman</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <v>Profesion</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>Estudiante de Ingeniería mecánica</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <v>Domicilio</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>Alberti  134,  Piso  7° “B”– CABA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>juanpquijano@outlook.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
+        <v>Celular</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>11-6160-3797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
+        <v>Linkedin</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>/juan-pablo-quijano-cuman</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1" xr:uid="{15564F9A-7C32-4FB8-A879-CFBD9D880B8A}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{15564F9A-7C32-4FB8-A879-CFBD9D880B8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1393,7 +1199,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,74 +1211,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>73</v>
+      <c r="A1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>46</v>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <f>IF(A4=A5,B4+1,1)</f>
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B15" si="0">IF(A5=A6,B5+1,1)</f>
@@ -1481,15 +1287,15 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
+      <c r="A7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -1498,14 +1304,14 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -1513,20 +1319,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1">
@@ -1534,20 +1340,20 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1">
@@ -1555,42 +1361,42 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1598,72 +1404,72 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
+      <c r="A13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>82</v>
+        <v>53</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
+      <c r="A14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>38</v>
+      <c r="A15" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>41</v>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1677,98 +1483,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B3DE1F-CE48-4AA1-AE35-8404F644B4EE}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("'",A2,"'")</f>
-        <v>'Responsable'</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT("[",_xlfn.TEXTJOIN(",",TRUE,B2:B8),"]")</f>
-        <v>['Responsable','Proactivo','Trabajo en equipo','Organizado','Autodidacta','Capacidad de análisis','Resolución de problemas']</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B8" si="0">_xlfn.CONCAT("'",A3,"'")</f>
-        <v>'Proactivo'</v>
-      </c>
-      <c r="D3" t="str">
+        <v>43</v>
+      </c>
+      <c r="C3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A2:A8)</f>
         <v>Responsable,Proactivo,Trabajo en equipo,Organizado,Autodidacta,Capacidad de análisis,Resolución de problemas</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>'Trabajo en equipo'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>'Organizado'</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>'Autodidacta'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>'Capacidad de análisis'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>'Resolución de problemas'</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
